--- a/vs-x64/Scattered unsuccessful looukp.xlsx
+++ b/vs-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.359278</v>
+        <v>0.283003</v>
       </c>
       <c r="C2" t="n">
-        <v>0.354887</v>
+        <v>0.284054</v>
       </c>
       <c r="D2" t="n">
-        <v>0.354354</v>
+        <v>0.276073</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.364969</v>
+        <v>0.28581</v>
       </c>
       <c r="C3" t="n">
-        <v>0.389379</v>
+        <v>0.285743</v>
       </c>
       <c r="D3" t="n">
-        <v>0.378939</v>
+        <v>0.280723</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.374432</v>
+        <v>0.29409</v>
       </c>
       <c r="C4" t="n">
-        <v>0.376419</v>
+        <v>0.296821</v>
       </c>
       <c r="D4" t="n">
-        <v>0.376936</v>
+        <v>0.290513</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.379691</v>
+        <v>0.305516</v>
       </c>
       <c r="C5" t="n">
-        <v>0.397838</v>
+        <v>0.311921</v>
       </c>
       <c r="D5" t="n">
-        <v>0.380765</v>
+        <v>0.299169</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.396698</v>
+        <v>0.321928</v>
       </c>
       <c r="C6" t="n">
-        <v>0.422584</v>
+        <v>0.332841</v>
       </c>
       <c r="D6" t="n">
-        <v>0.448705</v>
+        <v>0.317056</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.457289</v>
+        <v>0.345559</v>
       </c>
       <c r="C7" t="n">
-        <v>0.51608</v>
+        <v>0.369709</v>
       </c>
       <c r="D7" t="n">
-        <v>0.449176</v>
+        <v>0.342504</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.489962</v>
+        <v>0.384921</v>
       </c>
       <c r="C8" t="n">
-        <v>0.569326</v>
+        <v>0.408216</v>
       </c>
       <c r="D8" t="n">
-        <v>0.527464</v>
+        <v>0.376311</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.633527</v>
+        <v>0.444548</v>
       </c>
       <c r="C9" t="n">
-        <v>0.637998</v>
+        <v>0.469041</v>
       </c>
       <c r="D9" t="n">
-        <v>0.370742</v>
+        <v>0.265778</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.394289</v>
+        <v>0.276579</v>
       </c>
       <c r="C10" t="n">
-        <v>0.383652</v>
+        <v>0.270025</v>
       </c>
       <c r="D10" t="n">
-        <v>0.364207</v>
+        <v>0.266074</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.358653</v>
+        <v>0.276504</v>
       </c>
       <c r="C11" t="n">
-        <v>0.399001</v>
+        <v>0.271291</v>
       </c>
       <c r="D11" t="n">
-        <v>0.381651</v>
+        <v>0.267078</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.409461</v>
+        <v>0.278348</v>
       </c>
       <c r="C12" t="n">
-        <v>0.380564</v>
+        <v>0.271935</v>
       </c>
       <c r="D12" t="n">
-        <v>0.387508</v>
+        <v>0.266636</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.403696</v>
+        <v>0.279149</v>
       </c>
       <c r="C13" t="n">
-        <v>0.393309</v>
+        <v>0.272594</v>
       </c>
       <c r="D13" t="n">
-        <v>0.402506</v>
+        <v>0.269426</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.40087</v>
+        <v>0.281763</v>
       </c>
       <c r="C14" t="n">
-        <v>0.368977</v>
+        <v>0.275941</v>
       </c>
       <c r="D14" t="n">
-        <v>0.396841</v>
+        <v>0.270605</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.341807</v>
+        <v>0.282136</v>
       </c>
       <c r="C15" t="n">
-        <v>0.358282</v>
+        <v>0.279572</v>
       </c>
       <c r="D15" t="n">
-        <v>0.376387</v>
+        <v>0.272333</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.385553</v>
+        <v>0.283969</v>
       </c>
       <c r="C16" t="n">
-        <v>0.397358</v>
+        <v>0.284071</v>
       </c>
       <c r="D16" t="n">
-        <v>0.368802</v>
+        <v>0.274846</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.398542</v>
+        <v>0.28787</v>
       </c>
       <c r="C17" t="n">
-        <v>0.387979</v>
+        <v>0.288974</v>
       </c>
       <c r="D17" t="n">
-        <v>0.337512</v>
+        <v>0.280725</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.382986</v>
+        <v>0.294785</v>
       </c>
       <c r="C18" t="n">
-        <v>0.373233</v>
+        <v>0.296097</v>
       </c>
       <c r="D18" t="n">
-        <v>0.401163</v>
+        <v>0.286623</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.371621</v>
+        <v>0.303595</v>
       </c>
       <c r="C19" t="n">
-        <v>0.439492</v>
+        <v>0.307746</v>
       </c>
       <c r="D19" t="n">
-        <v>0.42148</v>
+        <v>0.295792</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.407182</v>
+        <v>0.314885</v>
       </c>
       <c r="C20" t="n">
-        <v>0.421076</v>
+        <v>0.325116</v>
       </c>
       <c r="D20" t="n">
-        <v>0.454443</v>
+        <v>0.308225</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.439566</v>
+        <v>0.338119</v>
       </c>
       <c r="C21" t="n">
-        <v>0.525493</v>
+        <v>0.348295</v>
       </c>
       <c r="D21" t="n">
-        <v>0.500435</v>
+        <v>0.327115</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.510767</v>
+        <v>0.366371</v>
       </c>
       <c r="C22" t="n">
-        <v>0.536443</v>
+        <v>0.383071</v>
       </c>
       <c r="D22" t="n">
-        <v>0.545329</v>
+        <v>0.359736</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.608533</v>
+        <v>0.420168</v>
       </c>
       <c r="C23" t="n">
-        <v>0.583999</v>
+        <v>0.442328</v>
       </c>
       <c r="D23" t="n">
-        <v>0.355768</v>
+        <v>0.266067</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.387017</v>
+        <v>0.281957</v>
       </c>
       <c r="C24" t="n">
-        <v>0.356741</v>
+        <v>0.272913</v>
       </c>
       <c r="D24" t="n">
-        <v>0.350978</v>
+        <v>0.266723</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.404892</v>
+        <v>0.283839</v>
       </c>
       <c r="C25" t="n">
-        <v>0.355746</v>
+        <v>0.273658</v>
       </c>
       <c r="D25" t="n">
-        <v>0.351396</v>
+        <v>0.267687</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.363954</v>
+        <v>0.284533</v>
       </c>
       <c r="C26" t="n">
-        <v>0.349503</v>
+        <v>0.275317</v>
       </c>
       <c r="D26" t="n">
-        <v>0.321393</v>
+        <v>0.267198</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.380187</v>
+        <v>0.28602</v>
       </c>
       <c r="C27" t="n">
-        <v>0.34906</v>
+        <v>0.275258</v>
       </c>
       <c r="D27" t="n">
-        <v>0.324298</v>
+        <v>0.268572</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.357803</v>
+        <v>0.284799</v>
       </c>
       <c r="C28" t="n">
-        <v>0.381101</v>
+        <v>0.277863</v>
       </c>
       <c r="D28" t="n">
-        <v>0.347719</v>
+        <v>0.271726</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.36207</v>
+        <v>0.28856</v>
       </c>
       <c r="C29" t="n">
-        <v>0.350778</v>
+        <v>0.281464</v>
       </c>
       <c r="D29" t="n">
-        <v>0.375999</v>
+        <v>0.272695</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.352933</v>
+        <v>0.291669</v>
       </c>
       <c r="C30" t="n">
-        <v>0.35862</v>
+        <v>0.284265</v>
       </c>
       <c r="D30" t="n">
-        <v>0.381891</v>
+        <v>0.276583</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.414101</v>
+        <v>0.295034</v>
       </c>
       <c r="C31" t="n">
-        <v>0.348439</v>
+        <v>0.289104</v>
       </c>
       <c r="D31" t="n">
-        <v>0.425382</v>
+        <v>0.279195</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.388547</v>
+        <v>0.300707</v>
       </c>
       <c r="C32" t="n">
-        <v>0.382791</v>
+        <v>0.295992</v>
       </c>
       <c r="D32" t="n">
-        <v>0.372949</v>
+        <v>0.284999</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.415311</v>
+        <v>0.30696</v>
       </c>
       <c r="C33" t="n">
-        <v>0.398371</v>
+        <v>0.306999</v>
       </c>
       <c r="D33" t="n">
-        <v>0.428624</v>
+        <v>0.294199</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.443129</v>
+        <v>0.317459</v>
       </c>
       <c r="C34" t="n">
-        <v>0.435558</v>
+        <v>0.320662</v>
       </c>
       <c r="D34" t="n">
-        <v>0.430766</v>
+        <v>0.305869</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.447394</v>
+        <v>0.334618</v>
       </c>
       <c r="C35" t="n">
-        <v>0.452493</v>
+        <v>0.341399</v>
       </c>
       <c r="D35" t="n">
-        <v>0.451814</v>
+        <v>0.322348</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.478652</v>
+        <v>0.363451</v>
       </c>
       <c r="C36" t="n">
-        <v>0.5346959999999999</v>
+        <v>0.374309</v>
       </c>
       <c r="D36" t="n">
-        <v>0.470392</v>
+        <v>0.352974</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.488856</v>
+        <v>0.41089</v>
       </c>
       <c r="C37" t="n">
-        <v>0.515172</v>
+        <v>0.426059</v>
       </c>
       <c r="D37" t="n">
-        <v>0.330574</v>
+        <v>0.267596</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.369521</v>
+        <v>0.286777</v>
       </c>
       <c r="C38" t="n">
-        <v>0.372289</v>
+        <v>0.275154</v>
       </c>
       <c r="D38" t="n">
-        <v>0.389035</v>
+        <v>0.268303</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.381646</v>
+        <v>0.286979</v>
       </c>
       <c r="C39" t="n">
-        <v>0.357955</v>
+        <v>0.276679</v>
       </c>
       <c r="D39" t="n">
-        <v>0.394329</v>
+        <v>0.268824</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.424396</v>
+        <v>0.288674</v>
       </c>
       <c r="C40" t="n">
-        <v>0.375509</v>
+        <v>0.2796</v>
       </c>
       <c r="D40" t="n">
-        <v>0.373402</v>
+        <v>0.267028</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.402104</v>
+        <v>0.290138</v>
       </c>
       <c r="C41" t="n">
-        <v>0.423765</v>
+        <v>0.276777</v>
       </c>
       <c r="D41" t="n">
-        <v>0.35729</v>
+        <v>0.269979</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.354497</v>
+        <v>0.288352</v>
       </c>
       <c r="C42" t="n">
-        <v>0.370827</v>
+        <v>0.2799</v>
       </c>
       <c r="D42" t="n">
-        <v>0.360624</v>
+        <v>0.271029</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.400864</v>
+        <v>0.29146</v>
       </c>
       <c r="C43" t="n">
-        <v>0.387178</v>
+        <v>0.281764</v>
       </c>
       <c r="D43" t="n">
-        <v>0.391237</v>
+        <v>0.273965</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.388266</v>
+        <v>0.295112</v>
       </c>
       <c r="C44" t="n">
-        <v>0.425345</v>
+        <v>0.286237</v>
       </c>
       <c r="D44" t="n">
-        <v>0.382495</v>
+        <v>0.276791</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.420353</v>
+        <v>0.299799</v>
       </c>
       <c r="C45" t="n">
-        <v>0.402422</v>
+        <v>0.290876</v>
       </c>
       <c r="D45" t="n">
-        <v>0.381165</v>
+        <v>0.280564</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.44355</v>
+        <v>0.304068</v>
       </c>
       <c r="C46" t="n">
-        <v>0.42652</v>
+        <v>0.297948</v>
       </c>
       <c r="D46" t="n">
-        <v>0.412987</v>
+        <v>0.286744</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.474412</v>
+        <v>0.309908</v>
       </c>
       <c r="C47" t="n">
-        <v>0.455417</v>
+        <v>0.304256</v>
       </c>
       <c r="D47" t="n">
-        <v>0.360855</v>
+        <v>0.293376</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.477727</v>
+        <v>0.318875</v>
       </c>
       <c r="C48" t="n">
-        <v>0.5061099999999999</v>
+        <v>0.320189</v>
       </c>
       <c r="D48" t="n">
-        <v>0.431146</v>
+        <v>0.30544</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.524466</v>
+        <v>0.339324</v>
       </c>
       <c r="C49" t="n">
-        <v>0.502808</v>
+        <v>0.337662</v>
       </c>
       <c r="D49" t="n">
-        <v>0.504837</v>
+        <v>0.322695</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.490552</v>
+        <v>0.358441</v>
       </c>
       <c r="C50" t="n">
-        <v>0.462447</v>
+        <v>0.373221</v>
       </c>
       <c r="D50" t="n">
-        <v>0.506032</v>
+        <v>0.349614</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.5154879999999999</v>
+        <v>0.398618</v>
       </c>
       <c r="C51" t="n">
-        <v>0.562144</v>
+        <v>0.416603</v>
       </c>
       <c r="D51" t="n">
-        <v>0.378375</v>
+        <v>0.269591</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.623185</v>
+        <v>0.470857</v>
       </c>
       <c r="C52" t="n">
-        <v>0.734507</v>
+        <v>0.489335</v>
       </c>
       <c r="D52" t="n">
-        <v>0.429142</v>
+        <v>0.269275</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.455491</v>
+        <v>0.289364</v>
       </c>
       <c r="C53" t="n">
-        <v>0.443729</v>
+        <v>0.285092</v>
       </c>
       <c r="D53" t="n">
-        <v>0.420267</v>
+        <v>0.271911</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.444254</v>
+        <v>0.293315</v>
       </c>
       <c r="C54" t="n">
-        <v>0.46201</v>
+        <v>0.281361</v>
       </c>
       <c r="D54" t="n">
-        <v>0.405376</v>
+        <v>0.271027</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.418044</v>
+        <v>0.295076</v>
       </c>
       <c r="C55" t="n">
-        <v>0.385515</v>
+        <v>0.284103</v>
       </c>
       <c r="D55" t="n">
-        <v>0.402252</v>
+        <v>0.273533</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.468001</v>
+        <v>0.296783</v>
       </c>
       <c r="C56" t="n">
-        <v>0.397867</v>
+        <v>0.287899</v>
       </c>
       <c r="D56" t="n">
-        <v>0.349534</v>
+        <v>0.275382</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.396081</v>
+        <v>0.297749</v>
       </c>
       <c r="C57" t="n">
-        <v>0.369408</v>
+        <v>0.288375</v>
       </c>
       <c r="D57" t="n">
-        <v>0.366511</v>
+        <v>0.276427</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.420732</v>
+        <v>0.299154</v>
       </c>
       <c r="C58" t="n">
-        <v>0.405688</v>
+        <v>0.29272</v>
       </c>
       <c r="D58" t="n">
-        <v>0.375169</v>
+        <v>0.279383</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.409788</v>
+        <v>0.303914</v>
       </c>
       <c r="C59" t="n">
-        <v>0.380782</v>
+        <v>0.299453</v>
       </c>
       <c r="D59" t="n">
-        <v>0.386498</v>
+        <v>0.284577</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.370807</v>
+        <v>0.309508</v>
       </c>
       <c r="C60" t="n">
-        <v>0.407426</v>
+        <v>0.304299</v>
       </c>
       <c r="D60" t="n">
-        <v>0.368764</v>
+        <v>0.28817</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.373428</v>
+        <v>0.319198</v>
       </c>
       <c r="C61" t="n">
-        <v>0.402251</v>
+        <v>0.314137</v>
       </c>
       <c r="D61" t="n">
-        <v>0.398827</v>
+        <v>0.296429</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.447917</v>
+        <v>0.329152</v>
       </c>
       <c r="C62" t="n">
-        <v>0.421348</v>
+        <v>0.32495</v>
       </c>
       <c r="D62" t="n">
-        <v>0.430479</v>
+        <v>0.306545</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.423995</v>
+        <v>0.344758</v>
       </c>
       <c r="C63" t="n">
-        <v>0.461721</v>
+        <v>0.345913</v>
       </c>
       <c r="D63" t="n">
-        <v>0.434807</v>
+        <v>0.326148</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.448682</v>
+        <v>0.368038</v>
       </c>
       <c r="C64" t="n">
-        <v>0.46205</v>
+        <v>0.377524</v>
       </c>
       <c r="D64" t="n">
-        <v>0.456861</v>
+        <v>0.354351</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.531944</v>
+        <v>0.399049</v>
       </c>
       <c r="C65" t="n">
-        <v>0.6580279999999999</v>
+        <v>0.417028</v>
       </c>
       <c r="D65" t="n">
-        <v>0.530423</v>
+        <v>0.393013</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.614919</v>
+        <v>0.468149</v>
       </c>
       <c r="C66" t="n">
-        <v>0.607356</v>
+        <v>0.486518</v>
       </c>
       <c r="D66" t="n">
-        <v>0.377685</v>
+        <v>0.282449</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.438596</v>
+        <v>0.311973</v>
       </c>
       <c r="C67" t="n">
-        <v>0.463232</v>
+        <v>0.297728</v>
       </c>
       <c r="D67" t="n">
-        <v>0.391859</v>
+        <v>0.2848</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.462947</v>
+        <v>0.309078</v>
       </c>
       <c r="C68" t="n">
-        <v>0.379516</v>
+        <v>0.299144</v>
       </c>
       <c r="D68" t="n">
-        <v>0.410573</v>
+        <v>0.286892</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.404608</v>
+        <v>0.311647</v>
       </c>
       <c r="C69" t="n">
-        <v>0.390389</v>
+        <v>0.302348</v>
       </c>
       <c r="D69" t="n">
-        <v>0.356302</v>
+        <v>0.283782</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.44764</v>
+        <v>0.316004</v>
       </c>
       <c r="C70" t="n">
-        <v>0.439536</v>
+        <v>0.306621</v>
       </c>
       <c r="D70" t="n">
-        <v>0.490509</v>
+        <v>0.288702</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.572325</v>
+        <v>0.318749</v>
       </c>
       <c r="C71" t="n">
-        <v>0.594542</v>
+        <v>0.303026</v>
       </c>
       <c r="D71" t="n">
-        <v>0.504821</v>
+        <v>0.290341</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.56277</v>
+        <v>0.315168</v>
       </c>
       <c r="C72" t="n">
-        <v>0.433731</v>
+        <v>0.312153</v>
       </c>
       <c r="D72" t="n">
-        <v>0.45713</v>
+        <v>0.294105</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.498962</v>
+        <v>0.31836</v>
       </c>
       <c r="C73" t="n">
-        <v>0.456228</v>
+        <v>0.31446</v>
       </c>
       <c r="D73" t="n">
-        <v>0.402831</v>
+        <v>0.297147</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.492623</v>
+        <v>0.326934</v>
       </c>
       <c r="C74" t="n">
-        <v>0.478449</v>
+        <v>0.323635</v>
       </c>
       <c r="D74" t="n">
-        <v>0.392702</v>
+        <v>0.305333</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.500742</v>
+        <v>0.333879</v>
       </c>
       <c r="C75" t="n">
-        <v>0.476326</v>
+        <v>0.326805</v>
       </c>
       <c r="D75" t="n">
-        <v>0.543927</v>
+        <v>0.313118</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.569762</v>
+        <v>0.344975</v>
       </c>
       <c r="C76" t="n">
-        <v>0.496242</v>
+        <v>0.349232</v>
       </c>
       <c r="D76" t="n">
-        <v>0.581493</v>
+        <v>0.32548</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.545477</v>
+        <v>0.365407</v>
       </c>
       <c r="C77" t="n">
-        <v>0.514499</v>
+        <v>0.368886</v>
       </c>
       <c r="D77" t="n">
-        <v>0.452556</v>
+        <v>0.345369</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.59968</v>
+        <v>0.392266</v>
       </c>
       <c r="C78" t="n">
-        <v>0.648319</v>
+        <v>0.39609</v>
       </c>
       <c r="D78" t="n">
-        <v>0.562019</v>
+        <v>0.365193</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.593593</v>
+        <v>0.425579</v>
       </c>
       <c r="C79" t="n">
-        <v>0.601751</v>
+        <v>0.432401</v>
       </c>
       <c r="D79" t="n">
-        <v>0.61529</v>
+        <v>0.403783</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.792801</v>
+        <v>0.481366</v>
       </c>
       <c r="C80" t="n">
-        <v>0.8374779999999999</v>
+        <v>0.497573</v>
       </c>
       <c r="D80" t="n">
-        <v>0.442503</v>
+        <v>0.319887</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.577797</v>
+        <v>0.35988</v>
       </c>
       <c r="C81" t="n">
-        <v>0.5559190000000001</v>
+        <v>0.347274</v>
       </c>
       <c r="D81" t="n">
-        <v>0.501151</v>
+        <v>0.309092</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.617191</v>
+        <v>0.379116</v>
       </c>
       <c r="C82" t="n">
-        <v>0.5286459999999999</v>
+        <v>0.356229</v>
       </c>
       <c r="D82" t="n">
-        <v>0.4192</v>
+        <v>0.325206</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.493382</v>
+        <v>0.37479</v>
       </c>
       <c r="C83" t="n">
-        <v>0.535461</v>
+        <v>0.367497</v>
       </c>
       <c r="D83" t="n">
-        <v>0.415548</v>
+        <v>0.334996</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.511122</v>
+        <v>0.385932</v>
       </c>
       <c r="C84" t="n">
-        <v>0.586413</v>
+        <v>0.374458</v>
       </c>
       <c r="D84" t="n">
-        <v>0.565732</v>
+        <v>0.339983</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.608779</v>
+        <v>0.398051</v>
       </c>
       <c r="C85" t="n">
-        <v>0.43734</v>
+        <v>0.37974</v>
       </c>
       <c r="D85" t="n">
-        <v>0.570114</v>
+        <v>0.341163</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.6653019999999999</v>
+        <v>0.386034</v>
       </c>
       <c r="C86" t="n">
-        <v>0.617625</v>
+        <v>0.373428</v>
       </c>
       <c r="D86" t="n">
-        <v>0.576874</v>
+        <v>0.335855</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.560335</v>
+        <v>0.381975</v>
       </c>
       <c r="C87" t="n">
-        <v>0.530612</v>
+        <v>0.392354</v>
       </c>
       <c r="D87" t="n">
-        <v>0.5721889999999999</v>
+        <v>0.34518</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.685535</v>
+        <v>0.401752</v>
       </c>
       <c r="C88" t="n">
-        <v>0.542358</v>
+        <v>0.389491</v>
       </c>
       <c r="D88" t="n">
-        <v>0.466403</v>
+        <v>0.341487</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.5997130000000001</v>
+        <v>0.401116</v>
       </c>
       <c r="C89" t="n">
-        <v>0.649718</v>
+        <v>0.390602</v>
       </c>
       <c r="D89" t="n">
-        <v>0.452614</v>
+        <v>0.348411</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.655894</v>
+        <v>0.407818</v>
       </c>
       <c r="C90" t="n">
-        <v>0.650617</v>
+        <v>0.409083</v>
       </c>
       <c r="D90" t="n">
-        <v>0.561809</v>
+        <v>0.362318</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.725415</v>
+        <v>0.421877</v>
       </c>
       <c r="C91" t="n">
-        <v>0.685459</v>
+        <v>0.442131</v>
       </c>
       <c r="D91" t="n">
-        <v>0.589251</v>
+        <v>0.382414</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.707228</v>
+        <v>0.44061</v>
       </c>
       <c r="C92" t="n">
-        <v>0.684022</v>
+        <v>0.443752</v>
       </c>
       <c r="D92" t="n">
-        <v>0.667866</v>
+        <v>0.396505</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.644253</v>
+        <v>0.464348</v>
       </c>
       <c r="C93" t="n">
-        <v>0.930293</v>
+        <v>0.503817</v>
       </c>
       <c r="D93" t="n">
-        <v>0.601082</v>
+        <v>0.448401</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.800652</v>
+        <v>0.524648</v>
       </c>
       <c r="C94" t="n">
-        <v>0.89075</v>
+        <v>0.553125</v>
       </c>
       <c r="D94" t="n">
-        <v>0.660591</v>
+        <v>0.378085</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.695122</v>
+        <v>0.427897</v>
       </c>
       <c r="C95" t="n">
-        <v>0.7214699999999999</v>
+        <v>0.40541</v>
       </c>
       <c r="D95" t="n">
-        <v>0.646792</v>
+        <v>0.369014</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.750513</v>
+        <v>0.421861</v>
       </c>
       <c r="C96" t="n">
-        <v>0.617818</v>
+        <v>0.405339</v>
       </c>
       <c r="D96" t="n">
-        <v>0.524174</v>
+        <v>0.369529</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.5627450000000001</v>
+        <v>0.438307</v>
       </c>
       <c r="C97" t="n">
-        <v>0.626871</v>
+        <v>0.410452</v>
       </c>
       <c r="D97" t="n">
-        <v>0.557439</v>
+        <v>0.38464</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.66079</v>
+        <v>0.436022</v>
       </c>
       <c r="C98" t="n">
-        <v>0.611575</v>
+        <v>0.418992</v>
       </c>
       <c r="D98" t="n">
-        <v>0.619415</v>
+        <v>0.381475</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.666091</v>
+        <v>0.451612</v>
       </c>
       <c r="C99" t="n">
-        <v>0.629783</v>
+        <v>0.430052</v>
       </c>
       <c r="D99" t="n">
-        <v>0.559063</v>
+        <v>0.38849</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.663853</v>
+        <v>0.450935</v>
       </c>
       <c r="C100" t="n">
-        <v>0.566009</v>
+        <v>0.437387</v>
       </c>
       <c r="D100" t="n">
-        <v>0.531582</v>
+        <v>0.387291</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.6180600000000001</v>
+        <v>0.488695</v>
       </c>
       <c r="C101" t="n">
-        <v>0.549895</v>
+        <v>0.461025</v>
       </c>
       <c r="D101" t="n">
-        <v>0.569087</v>
+        <v>0.415001</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.695237</v>
+        <v>0.498082</v>
       </c>
       <c r="C102" t="n">
-        <v>0.60975</v>
+        <v>0.470038</v>
       </c>
       <c r="D102" t="n">
-        <v>0.533382</v>
+        <v>0.420969</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.685754</v>
+        <v>0.498361</v>
       </c>
       <c r="C103" t="n">
-        <v>0.681521</v>
+        <v>0.489069</v>
       </c>
       <c r="D103" t="n">
-        <v>0.622619</v>
+        <v>0.438138</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.687441</v>
+        <v>0.521932</v>
       </c>
       <c r="C104" t="n">
-        <v>0.696743</v>
+        <v>0.508624</v>
       </c>
       <c r="D104" t="n">
-        <v>0.603608</v>
+        <v>0.45177</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.85953</v>
+        <v>0.554348</v>
       </c>
       <c r="C105" t="n">
-        <v>0.709847</v>
+        <v>0.537911</v>
       </c>
       <c r="D105" t="n">
-        <v>0.647087</v>
+        <v>0.470302</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.79212</v>
+        <v>0.57733</v>
       </c>
       <c r="C106" t="n">
-        <v>0.7127599999999999</v>
+        <v>0.583589</v>
       </c>
       <c r="D106" t="n">
-        <v>0.8463079999999999</v>
+        <v>0.488327</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.20737</v>
+        <v>0.625367</v>
       </c>
       <c r="C107" t="n">
-        <v>1.13068</v>
+        <v>0.622692</v>
       </c>
       <c r="D107" t="n">
-        <v>0.712886</v>
+        <v>0.541641</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.856365</v>
+        <v>0.6768729999999999</v>
       </c>
       <c r="C108" t="n">
-        <v>0.919864</v>
+        <v>0.6634139999999999</v>
       </c>
       <c r="D108" t="n">
-        <v>0.66566</v>
+        <v>0.450994</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.02033</v>
+        <v>0.763843</v>
       </c>
       <c r="C109" t="n">
-        <v>1.00278</v>
+        <v>0.805056</v>
       </c>
       <c r="D109" t="n">
-        <v>0.607147</v>
+        <v>0.490515</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.7122579999999999</v>
+        <v>0.55654</v>
       </c>
       <c r="C110" t="n">
-        <v>0.740661</v>
+        <v>0.518715</v>
       </c>
       <c r="D110" t="n">
-        <v>0.677534</v>
+        <v>0.45057</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.726332</v>
+        <v>0.534991</v>
       </c>
       <c r="C111" t="n">
-        <v>0.68563</v>
+        <v>0.497127</v>
       </c>
       <c r="D111" t="n">
-        <v>0.662416</v>
+        <v>0.466935</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.785558</v>
+        <v>0.530767</v>
       </c>
       <c r="C112" t="n">
-        <v>0.696688</v>
+        <v>0.50665</v>
       </c>
       <c r="D112" t="n">
-        <v>0.661753</v>
+        <v>0.465262</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.719225</v>
+        <v>0.566886</v>
       </c>
       <c r="C113" t="n">
-        <v>0.754019</v>
+        <v>0.505602</v>
       </c>
       <c r="D113" t="n">
-        <v>0.699978</v>
+        <v>0.460138</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.81864</v>
+        <v>0.5295800000000001</v>
       </c>
       <c r="C114" t="n">
-        <v>0.672318</v>
+        <v>0.512634</v>
       </c>
       <c r="D114" t="n">
-        <v>0.658981</v>
+        <v>0.453151</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.870718</v>
+        <v>0.542764</v>
       </c>
       <c r="C115" t="n">
-        <v>0.8239919999999999</v>
+        <v>0.517849</v>
       </c>
       <c r="D115" t="n">
-        <v>0.788583</v>
+        <v>0.45802</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.75574</v>
+        <v>0.542189</v>
       </c>
       <c r="C116" t="n">
-        <v>0.788227</v>
+        <v>0.554248</v>
       </c>
       <c r="D116" t="n">
-        <v>0.759636</v>
+        <v>0.502759</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.916238</v>
+        <v>0.575394</v>
       </c>
       <c r="C117" t="n">
-        <v>0.869985</v>
+        <v>0.568905</v>
       </c>
       <c r="D117" t="n">
-        <v>0.7063</v>
+        <v>0.503243</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.920092</v>
+        <v>0.57672</v>
       </c>
       <c r="C118" t="n">
-        <v>1.02931</v>
+        <v>0.563701</v>
       </c>
       <c r="D118" t="n">
-        <v>0.837818</v>
+        <v>0.488563</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.972809</v>
+        <v>0.582493</v>
       </c>
       <c r="C119" t="n">
-        <v>0.878251</v>
+        <v>0.608565</v>
       </c>
       <c r="D119" t="n">
-        <v>0.75966</v>
+        <v>0.530988</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.06663</v>
+        <v>0.746205</v>
       </c>
       <c r="C120" t="n">
-        <v>0.933454</v>
+        <v>0.677904</v>
       </c>
       <c r="D120" t="n">
-        <v>0.741578</v>
+        <v>0.58953</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.9605399999999999</v>
+        <v>0.719037</v>
       </c>
       <c r="C121" t="n">
-        <v>0.9201589999999999</v>
+        <v>0.740312</v>
       </c>
       <c r="D121" t="n">
-        <v>0.744036</v>
+        <v>0.669551</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.954773</v>
+        <v>0.785247</v>
       </c>
       <c r="C122" t="n">
-        <v>1.03538</v>
+        <v>0.912394</v>
       </c>
       <c r="D122" t="n">
-        <v>0.919306</v>
+        <v>0.686216</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.19332</v>
+        <v>0.878063</v>
       </c>
       <c r="C123" t="n">
-        <v>1.16555</v>
+        <v>0.852772</v>
       </c>
       <c r="D123" t="n">
-        <v>0.891754</v>
+        <v>0.608389</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.932914</v>
+        <v>0.673953</v>
       </c>
       <c r="C124" t="n">
-        <v>0.806679</v>
+        <v>0.806325</v>
       </c>
       <c r="D124" t="n">
-        <v>0.761433</v>
+        <v>0.71235</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.8537</v>
+        <v>0.813053</v>
       </c>
       <c r="C125" t="n">
-        <v>0.9391890000000001</v>
+        <v>0.7429480000000001</v>
       </c>
       <c r="D125" t="n">
-        <v>0.923997</v>
+        <v>0.674401</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.0451</v>
+        <v>0.6947410000000001</v>
       </c>
       <c r="C126" t="n">
-        <v>0.840488</v>
+        <v>0.660469</v>
       </c>
       <c r="D126" t="n">
-        <v>0.789375</v>
+        <v>0.620726</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.00347</v>
+        <v>0.768414</v>
       </c>
       <c r="C127" t="n">
-        <v>0.8622</v>
+        <v>0.7947959999999999</v>
       </c>
       <c r="D127" t="n">
-        <v>0.796442</v>
+        <v>0.76197</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.879379</v>
+        <v>0.883607</v>
       </c>
       <c r="C128" t="n">
-        <v>0.90215</v>
+        <v>0.80587</v>
       </c>
       <c r="D128" t="n">
-        <v>0.798721</v>
+        <v>0.737357</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.893682</v>
+        <v>0.826912</v>
       </c>
       <c r="C129" t="n">
-        <v>0.9421890000000001</v>
+        <v>0.754486</v>
       </c>
       <c r="D129" t="n">
-        <v>0.977293</v>
+        <v>0.776891</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.06021</v>
+        <v>0.860603</v>
       </c>
       <c r="C130" t="n">
-        <v>0.938679</v>
+        <v>1.00134</v>
       </c>
       <c r="D130" t="n">
-        <v>0.96884</v>
+        <v>0.835421</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.051</v>
+        <v>0.807552</v>
       </c>
       <c r="C131" t="n">
-        <v>0.911965</v>
+        <v>0.804254</v>
       </c>
       <c r="D131" t="n">
-        <v>0.903153</v>
+        <v>0.8437170000000001</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.01996</v>
+        <v>0.760545</v>
       </c>
       <c r="C132" t="n">
-        <v>0.977332</v>
+        <v>0.759792</v>
       </c>
       <c r="D132" t="n">
-        <v>0.88204</v>
+        <v>0.690253</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.04583</v>
+        <v>0.90282</v>
       </c>
       <c r="C133" t="n">
-        <v>1.14184</v>
+        <v>0.8612610000000001</v>
       </c>
       <c r="D133" t="n">
-        <v>0.938519</v>
+        <v>0.745269</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.38218</v>
+        <v>0.856958</v>
       </c>
       <c r="C134" t="n">
-        <v>1.23254</v>
+        <v>0.940705</v>
       </c>
       <c r="D134" t="n">
-        <v>1.18069</v>
+        <v>0.823066</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.4109</v>
+        <v>1.12078</v>
       </c>
       <c r="C135" t="n">
-        <v>1.46805</v>
+        <v>1.06301</v>
       </c>
       <c r="D135" t="n">
-        <v>1.20927</v>
+        <v>0.912386</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.36321</v>
+        <v>1.22826</v>
       </c>
       <c r="C136" t="n">
-        <v>1.47769</v>
+        <v>1.21653</v>
       </c>
       <c r="D136" t="n">
-        <v>1.34893</v>
+        <v>0.952806</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.58709</v>
+        <v>1.29057</v>
       </c>
       <c r="C137" t="n">
-        <v>1.56007</v>
+        <v>1.26708</v>
       </c>
       <c r="D137" t="n">
-        <v>1.25723</v>
+        <v>1.10165</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.40652</v>
+        <v>1.22443</v>
       </c>
       <c r="C138" t="n">
-        <v>1.32522</v>
+        <v>1.1129</v>
       </c>
       <c r="D138" t="n">
-        <v>1.26148</v>
+        <v>1.07972</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.5418</v>
+        <v>1.20717</v>
       </c>
       <c r="C139" t="n">
-        <v>1.4703</v>
+        <v>1.14416</v>
       </c>
       <c r="D139" t="n">
-        <v>1.27117</v>
+        <v>1.076</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.50217</v>
+        <v>1.17687</v>
       </c>
       <c r="C140" t="n">
-        <v>1.49835</v>
+        <v>1.1064</v>
       </c>
       <c r="D140" t="n">
-        <v>1.40387</v>
+        <v>0.89352</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.34923</v>
+        <v>0.971846</v>
       </c>
       <c r="C141" t="n">
-        <v>1.21714</v>
+        <v>1.01667</v>
       </c>
       <c r="D141" t="n">
-        <v>1.16058</v>
+        <v>0.99747</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.32837</v>
+        <v>1.11078</v>
       </c>
       <c r="C142" t="n">
-        <v>1.30525</v>
+        <v>1.13748</v>
       </c>
       <c r="D142" t="n">
-        <v>1.34192</v>
+        <v>1.09717</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.39729</v>
+        <v>1.24382</v>
       </c>
       <c r="C143" t="n">
-        <v>1.37096</v>
+        <v>1.15762</v>
       </c>
       <c r="D143" t="n">
-        <v>1.29849</v>
+        <v>1.14882</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered unsuccessful looukp.xlsx
+++ b/vs-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.283003</v>
+        <v>0.330214</v>
       </c>
       <c r="C2" t="n">
-        <v>0.284054</v>
+        <v>0.371808</v>
       </c>
       <c r="D2" t="n">
-        <v>0.276073</v>
+        <v>0.328534</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.28581</v>
+        <v>0.337425</v>
       </c>
       <c r="C3" t="n">
-        <v>0.285743</v>
+        <v>0.377801</v>
       </c>
       <c r="D3" t="n">
-        <v>0.280723</v>
+        <v>0.331773</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.29409</v>
+        <v>0.334351</v>
       </c>
       <c r="C4" t="n">
-        <v>0.296821</v>
+        <v>0.38176</v>
       </c>
       <c r="D4" t="n">
-        <v>0.290513</v>
+        <v>0.334664</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.305516</v>
+        <v>0.34829</v>
       </c>
       <c r="C5" t="n">
-        <v>0.311921</v>
+        <v>0.388594</v>
       </c>
       <c r="D5" t="n">
-        <v>0.299169</v>
+        <v>0.349215</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.321928</v>
+        <v>0.356274</v>
       </c>
       <c r="C6" t="n">
-        <v>0.332841</v>
+        <v>0.402504</v>
       </c>
       <c r="D6" t="n">
-        <v>0.317056</v>
+        <v>0.368535</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.345559</v>
+        <v>0.373075</v>
       </c>
       <c r="C7" t="n">
-        <v>0.369709</v>
+        <v>0.423164</v>
       </c>
       <c r="D7" t="n">
-        <v>0.342504</v>
+        <v>0.378243</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.384921</v>
+        <v>0.402313</v>
       </c>
       <c r="C8" t="n">
-        <v>0.408216</v>
+        <v>0.45332</v>
       </c>
       <c r="D8" t="n">
-        <v>0.376311</v>
+        <v>0.413578</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.444548</v>
+        <v>0.436064</v>
       </c>
       <c r="C9" t="n">
-        <v>0.469041</v>
+        <v>0.510754</v>
       </c>
       <c r="D9" t="n">
-        <v>0.265778</v>
+        <v>0.32112</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.276579</v>
+        <v>0.326576</v>
       </c>
       <c r="C10" t="n">
-        <v>0.270025</v>
+        <v>0.373494</v>
       </c>
       <c r="D10" t="n">
-        <v>0.266074</v>
+        <v>0.331662</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.276504</v>
+        <v>0.32749</v>
       </c>
       <c r="C11" t="n">
-        <v>0.271291</v>
+        <v>0.36812</v>
       </c>
       <c r="D11" t="n">
-        <v>0.267078</v>
+        <v>0.321567</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.278348</v>
+        <v>0.330693</v>
       </c>
       <c r="C12" t="n">
-        <v>0.271935</v>
+        <v>0.368308</v>
       </c>
       <c r="D12" t="n">
-        <v>0.266636</v>
+        <v>0.320209</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.279149</v>
+        <v>0.325845</v>
       </c>
       <c r="C13" t="n">
-        <v>0.272594</v>
+        <v>0.362843</v>
       </c>
       <c r="D13" t="n">
-        <v>0.269426</v>
+        <v>0.316157</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.281763</v>
+        <v>0.328638</v>
       </c>
       <c r="C14" t="n">
-        <v>0.275941</v>
+        <v>0.386652</v>
       </c>
       <c r="D14" t="n">
-        <v>0.270605</v>
+        <v>0.334386</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.282136</v>
+        <v>0.352596</v>
       </c>
       <c r="C15" t="n">
-        <v>0.279572</v>
+        <v>0.38715</v>
       </c>
       <c r="D15" t="n">
-        <v>0.272333</v>
+        <v>0.328369</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.283969</v>
+        <v>0.35212</v>
       </c>
       <c r="C16" t="n">
-        <v>0.284071</v>
+        <v>0.371335</v>
       </c>
       <c r="D16" t="n">
-        <v>0.274846</v>
+        <v>0.322704</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.28787</v>
+        <v>0.343073</v>
       </c>
       <c r="C17" t="n">
-        <v>0.288974</v>
+        <v>0.388821</v>
       </c>
       <c r="D17" t="n">
-        <v>0.280725</v>
+        <v>0.329225</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.294785</v>
+        <v>0.338352</v>
       </c>
       <c r="C18" t="n">
-        <v>0.296097</v>
+        <v>0.387425</v>
       </c>
       <c r="D18" t="n">
-        <v>0.286623</v>
+        <v>0.348499</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.303595</v>
+        <v>0.352108</v>
       </c>
       <c r="C19" t="n">
-        <v>0.307746</v>
+        <v>0.386443</v>
       </c>
       <c r="D19" t="n">
-        <v>0.295792</v>
+        <v>0.335548</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.314885</v>
+        <v>0.362989</v>
       </c>
       <c r="C20" t="n">
-        <v>0.325116</v>
+        <v>0.39766</v>
       </c>
       <c r="D20" t="n">
-        <v>0.308225</v>
+        <v>0.356519</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.338119</v>
+        <v>0.378375</v>
       </c>
       <c r="C21" t="n">
-        <v>0.348295</v>
+        <v>0.420083</v>
       </c>
       <c r="D21" t="n">
-        <v>0.327115</v>
+        <v>0.379624</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.366371</v>
+        <v>0.399083</v>
       </c>
       <c r="C22" t="n">
-        <v>0.383071</v>
+        <v>0.435312</v>
       </c>
       <c r="D22" t="n">
-        <v>0.359736</v>
+        <v>0.400008</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.420168</v>
+        <v>0.434295</v>
       </c>
       <c r="C23" t="n">
-        <v>0.442328</v>
+        <v>0.473744</v>
       </c>
       <c r="D23" t="n">
-        <v>0.266067</v>
+        <v>0.323382</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.281957</v>
+        <v>0.338352</v>
       </c>
       <c r="C24" t="n">
-        <v>0.272913</v>
+        <v>0.361187</v>
       </c>
       <c r="D24" t="n">
-        <v>0.266723</v>
+        <v>0.326922</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.283839</v>
+        <v>0.326214</v>
       </c>
       <c r="C25" t="n">
-        <v>0.273658</v>
+        <v>0.369143</v>
       </c>
       <c r="D25" t="n">
-        <v>0.267687</v>
+        <v>0.331389</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.284533</v>
+        <v>0.350896</v>
       </c>
       <c r="C26" t="n">
-        <v>0.275317</v>
+        <v>0.361869</v>
       </c>
       <c r="D26" t="n">
-        <v>0.267198</v>
+        <v>0.32143</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.28602</v>
+        <v>0.326997</v>
       </c>
       <c r="C27" t="n">
-        <v>0.275258</v>
+        <v>0.359289</v>
       </c>
       <c r="D27" t="n">
-        <v>0.268572</v>
+        <v>0.328721</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.284799</v>
+        <v>0.331957</v>
       </c>
       <c r="C28" t="n">
-        <v>0.277863</v>
+        <v>0.386039</v>
       </c>
       <c r="D28" t="n">
-        <v>0.271726</v>
+        <v>0.321113</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.28856</v>
+        <v>0.332643</v>
       </c>
       <c r="C29" t="n">
-        <v>0.281464</v>
+        <v>0.37468</v>
       </c>
       <c r="D29" t="n">
-        <v>0.272695</v>
+        <v>0.32313</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.291669</v>
+        <v>0.336133</v>
       </c>
       <c r="C30" t="n">
-        <v>0.284265</v>
+        <v>0.377448</v>
       </c>
       <c r="D30" t="n">
-        <v>0.276583</v>
+        <v>0.320551</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.295034</v>
+        <v>0.336781</v>
       </c>
       <c r="C31" t="n">
-        <v>0.289104</v>
+        <v>0.38381</v>
       </c>
       <c r="D31" t="n">
-        <v>0.279195</v>
+        <v>0.331278</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.300707</v>
+        <v>0.346576</v>
       </c>
       <c r="C32" t="n">
-        <v>0.295992</v>
+        <v>0.379585</v>
       </c>
       <c r="D32" t="n">
-        <v>0.284999</v>
+        <v>0.342452</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.30696</v>
+        <v>0.346619</v>
       </c>
       <c r="C33" t="n">
-        <v>0.306999</v>
+        <v>0.392084</v>
       </c>
       <c r="D33" t="n">
-        <v>0.294199</v>
+        <v>0.351189</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.317459</v>
+        <v>0.368611</v>
       </c>
       <c r="C34" t="n">
-        <v>0.320662</v>
+        <v>0.396526</v>
       </c>
       <c r="D34" t="n">
-        <v>0.305869</v>
+        <v>0.348216</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.334618</v>
+        <v>0.37505</v>
       </c>
       <c r="C35" t="n">
-        <v>0.341399</v>
+        <v>0.406757</v>
       </c>
       <c r="D35" t="n">
-        <v>0.322348</v>
+        <v>0.36101</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.363451</v>
+        <v>0.4017</v>
       </c>
       <c r="C36" t="n">
-        <v>0.374309</v>
+        <v>0.430705</v>
       </c>
       <c r="D36" t="n">
-        <v>0.352974</v>
+        <v>0.398976</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.41089</v>
+        <v>0.434074</v>
       </c>
       <c r="C37" t="n">
-        <v>0.426059</v>
+        <v>0.491246</v>
       </c>
       <c r="D37" t="n">
-        <v>0.267596</v>
+        <v>0.324747</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.286777</v>
+        <v>0.341103</v>
       </c>
       <c r="C38" t="n">
-        <v>0.275154</v>
+        <v>0.364835</v>
       </c>
       <c r="D38" t="n">
-        <v>0.268303</v>
+        <v>0.320666</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.286979</v>
+        <v>0.335932</v>
       </c>
       <c r="C39" t="n">
-        <v>0.276679</v>
+        <v>0.376587</v>
       </c>
       <c r="D39" t="n">
-        <v>0.268824</v>
+        <v>0.319483</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.288674</v>
+        <v>0.341727</v>
       </c>
       <c r="C40" t="n">
-        <v>0.2796</v>
+        <v>0.375166</v>
       </c>
       <c r="D40" t="n">
-        <v>0.267028</v>
+        <v>0.336292</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.290138</v>
+        <v>0.348562</v>
       </c>
       <c r="C41" t="n">
-        <v>0.276777</v>
+        <v>0.366119</v>
       </c>
       <c r="D41" t="n">
-        <v>0.269979</v>
+        <v>0.319828</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.288352</v>
+        <v>0.337317</v>
       </c>
       <c r="C42" t="n">
-        <v>0.2799</v>
+        <v>0.367421</v>
       </c>
       <c r="D42" t="n">
-        <v>0.271029</v>
+        <v>0.323698</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.29146</v>
+        <v>0.332193</v>
       </c>
       <c r="C43" t="n">
-        <v>0.281764</v>
+        <v>0.36841</v>
       </c>
       <c r="D43" t="n">
-        <v>0.273965</v>
+        <v>0.329297</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.295112</v>
+        <v>0.338744</v>
       </c>
       <c r="C44" t="n">
-        <v>0.286237</v>
+        <v>0.393941</v>
       </c>
       <c r="D44" t="n">
-        <v>0.276791</v>
+        <v>0.326672</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.299799</v>
+        <v>0.337063</v>
       </c>
       <c r="C45" t="n">
-        <v>0.290876</v>
+        <v>0.379643</v>
       </c>
       <c r="D45" t="n">
-        <v>0.280564</v>
+        <v>0.331097</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.304068</v>
+        <v>0.35745</v>
       </c>
       <c r="C46" t="n">
-        <v>0.297948</v>
+        <v>0.374738</v>
       </c>
       <c r="D46" t="n">
-        <v>0.286744</v>
+        <v>0.338879</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.309908</v>
+        <v>0.354225</v>
       </c>
       <c r="C47" t="n">
-        <v>0.304256</v>
+        <v>0.384285</v>
       </c>
       <c r="D47" t="n">
-        <v>0.293376</v>
+        <v>0.338209</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.318875</v>
+        <v>0.362393</v>
       </c>
       <c r="C48" t="n">
-        <v>0.320189</v>
+        <v>0.396528</v>
       </c>
       <c r="D48" t="n">
-        <v>0.30544</v>
+        <v>0.342864</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.339324</v>
+        <v>0.368212</v>
       </c>
       <c r="C49" t="n">
-        <v>0.337662</v>
+        <v>0.398964</v>
       </c>
       <c r="D49" t="n">
-        <v>0.322695</v>
+        <v>0.361602</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.358441</v>
+        <v>0.395236</v>
       </c>
       <c r="C50" t="n">
-        <v>0.373221</v>
+        <v>0.423039</v>
       </c>
       <c r="D50" t="n">
-        <v>0.349614</v>
+        <v>0.386085</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.398618</v>
+        <v>0.438317</v>
       </c>
       <c r="C51" t="n">
-        <v>0.416603</v>
+        <v>0.469783</v>
       </c>
       <c r="D51" t="n">
-        <v>0.269591</v>
+        <v>0.324892</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.470857</v>
+        <v>0.488517</v>
       </c>
       <c r="C52" t="n">
-        <v>0.489335</v>
+        <v>0.522178</v>
       </c>
       <c r="D52" t="n">
-        <v>0.269275</v>
+        <v>0.323062</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.289364</v>
+        <v>0.333959</v>
       </c>
       <c r="C53" t="n">
-        <v>0.285092</v>
+        <v>0.375351</v>
       </c>
       <c r="D53" t="n">
-        <v>0.271911</v>
+        <v>0.337415</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.293315</v>
+        <v>0.336806</v>
       </c>
       <c r="C54" t="n">
-        <v>0.281361</v>
+        <v>0.384776</v>
       </c>
       <c r="D54" t="n">
-        <v>0.271027</v>
+        <v>0.332946</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.295076</v>
+        <v>0.358505</v>
       </c>
       <c r="C55" t="n">
-        <v>0.284103</v>
+        <v>0.37478</v>
       </c>
       <c r="D55" t="n">
-        <v>0.273533</v>
+        <v>0.331063</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.296783</v>
+        <v>0.335862</v>
       </c>
       <c r="C56" t="n">
-        <v>0.287899</v>
+        <v>0.385564</v>
       </c>
       <c r="D56" t="n">
-        <v>0.275382</v>
+        <v>0.320746</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.297749</v>
+        <v>0.357819</v>
       </c>
       <c r="C57" t="n">
-        <v>0.288375</v>
+        <v>0.378889</v>
       </c>
       <c r="D57" t="n">
-        <v>0.276427</v>
+        <v>0.321334</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.299154</v>
+        <v>0.349896</v>
       </c>
       <c r="C58" t="n">
-        <v>0.29272</v>
+        <v>0.399171</v>
       </c>
       <c r="D58" t="n">
-        <v>0.279383</v>
+        <v>0.342348</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.303914</v>
+        <v>0.354008</v>
       </c>
       <c r="C59" t="n">
-        <v>0.299453</v>
+        <v>0.376283</v>
       </c>
       <c r="D59" t="n">
-        <v>0.284577</v>
+        <v>0.336856</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.309508</v>
+        <v>0.357853</v>
       </c>
       <c r="C60" t="n">
-        <v>0.304299</v>
+        <v>0.392186</v>
       </c>
       <c r="D60" t="n">
-        <v>0.28817</v>
+        <v>0.340761</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.319198</v>
+        <v>0.364022</v>
       </c>
       <c r="C61" t="n">
-        <v>0.314137</v>
+        <v>0.398086</v>
       </c>
       <c r="D61" t="n">
-        <v>0.296429</v>
+        <v>0.338608</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.329152</v>
+        <v>0.364776</v>
       </c>
       <c r="C62" t="n">
-        <v>0.32495</v>
+        <v>0.421768</v>
       </c>
       <c r="D62" t="n">
-        <v>0.306545</v>
+        <v>0.357065</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.344758</v>
+        <v>0.391438</v>
       </c>
       <c r="C63" t="n">
-        <v>0.345913</v>
+        <v>0.427068</v>
       </c>
       <c r="D63" t="n">
-        <v>0.326148</v>
+        <v>0.359191</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.368038</v>
+        <v>0.412375</v>
       </c>
       <c r="C64" t="n">
-        <v>0.377524</v>
+        <v>0.43774</v>
       </c>
       <c r="D64" t="n">
-        <v>0.354351</v>
+        <v>0.379996</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.399049</v>
+        <v>0.448361</v>
       </c>
       <c r="C65" t="n">
-        <v>0.417028</v>
+        <v>0.464892</v>
       </c>
       <c r="D65" t="n">
-        <v>0.393013</v>
+        <v>0.41524</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.468149</v>
+        <v>0.49897</v>
       </c>
       <c r="C66" t="n">
-        <v>0.486518</v>
+        <v>0.530896</v>
       </c>
       <c r="D66" t="n">
-        <v>0.282449</v>
+        <v>0.334851</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.311973</v>
+        <v>0.356309</v>
       </c>
       <c r="C67" t="n">
-        <v>0.297728</v>
+        <v>0.384827</v>
       </c>
       <c r="D67" t="n">
-        <v>0.2848</v>
+        <v>0.33011</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.309078</v>
+        <v>0.376012</v>
       </c>
       <c r="C68" t="n">
-        <v>0.299144</v>
+        <v>0.377071</v>
       </c>
       <c r="D68" t="n">
-        <v>0.286892</v>
+        <v>0.32359</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.311647</v>
+        <v>0.357901</v>
       </c>
       <c r="C69" t="n">
-        <v>0.302348</v>
+        <v>0.376978</v>
       </c>
       <c r="D69" t="n">
-        <v>0.283782</v>
+        <v>0.326249</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.316004</v>
+        <v>0.358669</v>
       </c>
       <c r="C70" t="n">
-        <v>0.306621</v>
+        <v>0.387927</v>
       </c>
       <c r="D70" t="n">
-        <v>0.288702</v>
+        <v>0.330466</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.318749</v>
+        <v>0.368346</v>
       </c>
       <c r="C71" t="n">
-        <v>0.303026</v>
+        <v>0.387718</v>
       </c>
       <c r="D71" t="n">
-        <v>0.290341</v>
+        <v>0.344175</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.315168</v>
+        <v>0.363104</v>
       </c>
       <c r="C72" t="n">
-        <v>0.312153</v>
+        <v>0.389476</v>
       </c>
       <c r="D72" t="n">
-        <v>0.294105</v>
+        <v>0.337148</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.31836</v>
+        <v>0.373742</v>
       </c>
       <c r="C73" t="n">
-        <v>0.31446</v>
+        <v>0.397278</v>
       </c>
       <c r="D73" t="n">
-        <v>0.297147</v>
+        <v>0.335899</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.326934</v>
+        <v>0.371287</v>
       </c>
       <c r="C74" t="n">
-        <v>0.323635</v>
+        <v>0.411114</v>
       </c>
       <c r="D74" t="n">
-        <v>0.305333</v>
+        <v>0.345314</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.333879</v>
+        <v>0.386737</v>
       </c>
       <c r="C75" t="n">
-        <v>0.326805</v>
+        <v>0.409136</v>
       </c>
       <c r="D75" t="n">
-        <v>0.313118</v>
+        <v>0.346631</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.344975</v>
+        <v>0.382488</v>
       </c>
       <c r="C76" t="n">
-        <v>0.349232</v>
+        <v>0.413092</v>
       </c>
       <c r="D76" t="n">
-        <v>0.32548</v>
+        <v>0.357789</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.365407</v>
+        <v>0.423859</v>
       </c>
       <c r="C77" t="n">
-        <v>0.368886</v>
+        <v>0.425346</v>
       </c>
       <c r="D77" t="n">
-        <v>0.345369</v>
+        <v>0.3898</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.392266</v>
+        <v>0.443907</v>
       </c>
       <c r="C78" t="n">
-        <v>0.39609</v>
+        <v>0.454278</v>
       </c>
       <c r="D78" t="n">
-        <v>0.365193</v>
+        <v>0.394321</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.425579</v>
+        <v>0.463958</v>
       </c>
       <c r="C79" t="n">
-        <v>0.432401</v>
+        <v>0.501201</v>
       </c>
       <c r="D79" t="n">
-        <v>0.403783</v>
+        <v>0.435783</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.481366</v>
+        <v>0.524125</v>
       </c>
       <c r="C80" t="n">
-        <v>0.497573</v>
+        <v>0.550128</v>
       </c>
       <c r="D80" t="n">
-        <v>0.319887</v>
+        <v>0.325276</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.35988</v>
+        <v>0.371335</v>
       </c>
       <c r="C81" t="n">
-        <v>0.347274</v>
+        <v>0.38767</v>
       </c>
       <c r="D81" t="n">
-        <v>0.309092</v>
+        <v>0.332762</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.379116</v>
+        <v>0.375686</v>
       </c>
       <c r="C82" t="n">
-        <v>0.356229</v>
+        <v>0.401559</v>
       </c>
       <c r="D82" t="n">
-        <v>0.325206</v>
+        <v>0.331178</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.37479</v>
+        <v>0.387193</v>
       </c>
       <c r="C83" t="n">
-        <v>0.367497</v>
+        <v>0.395332</v>
       </c>
       <c r="D83" t="n">
-        <v>0.334996</v>
+        <v>0.327429</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.385932</v>
+        <v>0.382775</v>
       </c>
       <c r="C84" t="n">
-        <v>0.374458</v>
+        <v>0.399676</v>
       </c>
       <c r="D84" t="n">
-        <v>0.339983</v>
+        <v>0.345419</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.398051</v>
+        <v>0.394943</v>
       </c>
       <c r="C85" t="n">
-        <v>0.37974</v>
+        <v>0.407895</v>
       </c>
       <c r="D85" t="n">
-        <v>0.341163</v>
+        <v>0.33467</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.386034</v>
+        <v>0.39001</v>
       </c>
       <c r="C86" t="n">
-        <v>0.373428</v>
+        <v>0.412117</v>
       </c>
       <c r="D86" t="n">
-        <v>0.335855</v>
+        <v>0.340761</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.381975</v>
+        <v>0.409378</v>
       </c>
       <c r="C87" t="n">
-        <v>0.392354</v>
+        <v>0.417199</v>
       </c>
       <c r="D87" t="n">
-        <v>0.34518</v>
+        <v>0.361905</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.401752</v>
+        <v>0.415171</v>
       </c>
       <c r="C88" t="n">
-        <v>0.389491</v>
+        <v>0.425674</v>
       </c>
       <c r="D88" t="n">
-        <v>0.341487</v>
+        <v>0.351377</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.401116</v>
+        <v>0.412028</v>
       </c>
       <c r="C89" t="n">
-        <v>0.390602</v>
+        <v>0.437283</v>
       </c>
       <c r="D89" t="n">
-        <v>0.348411</v>
+        <v>0.365257</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.407818</v>
+        <v>0.43227</v>
       </c>
       <c r="C90" t="n">
-        <v>0.409083</v>
+        <v>0.437727</v>
       </c>
       <c r="D90" t="n">
-        <v>0.362318</v>
+        <v>0.382081</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.421877</v>
+        <v>0.447879</v>
       </c>
       <c r="C91" t="n">
-        <v>0.442131</v>
+        <v>0.47078</v>
       </c>
       <c r="D91" t="n">
-        <v>0.382414</v>
+        <v>0.395761</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.44061</v>
+        <v>0.45914</v>
       </c>
       <c r="C92" t="n">
-        <v>0.443752</v>
+        <v>0.482647</v>
       </c>
       <c r="D92" t="n">
-        <v>0.396505</v>
+        <v>0.420257</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.464348</v>
+        <v>0.491125</v>
       </c>
       <c r="C93" t="n">
-        <v>0.503817</v>
+        <v>0.51479</v>
       </c>
       <c r="D93" t="n">
-        <v>0.448401</v>
+        <v>0.449818</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.524648</v>
+        <v>0.555231</v>
       </c>
       <c r="C94" t="n">
-        <v>0.553125</v>
+        <v>0.594688</v>
       </c>
       <c r="D94" t="n">
-        <v>0.378085</v>
+        <v>0.362125</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.427897</v>
+        <v>0.43097</v>
       </c>
       <c r="C95" t="n">
-        <v>0.40541</v>
+        <v>0.433327</v>
       </c>
       <c r="D95" t="n">
-        <v>0.369014</v>
+        <v>0.371721</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.421861</v>
+        <v>0.434364</v>
       </c>
       <c r="C96" t="n">
-        <v>0.405339</v>
+        <v>0.446229</v>
       </c>
       <c r="D96" t="n">
-        <v>0.369529</v>
+        <v>0.361959</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.438307</v>
+        <v>0.433134</v>
       </c>
       <c r="C97" t="n">
-        <v>0.410452</v>
+        <v>0.445209</v>
       </c>
       <c r="D97" t="n">
-        <v>0.38464</v>
+        <v>0.381522</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.436022</v>
+        <v>0.437143</v>
       </c>
       <c r="C98" t="n">
-        <v>0.418992</v>
+        <v>0.453028</v>
       </c>
       <c r="D98" t="n">
-        <v>0.381475</v>
+        <v>0.392308</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.451612</v>
+        <v>0.449548</v>
       </c>
       <c r="C99" t="n">
-        <v>0.430052</v>
+        <v>0.451393</v>
       </c>
       <c r="D99" t="n">
-        <v>0.38849</v>
+        <v>0.36791</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.450935</v>
+        <v>0.449934</v>
       </c>
       <c r="C100" t="n">
-        <v>0.437387</v>
+        <v>0.461602</v>
       </c>
       <c r="D100" t="n">
-        <v>0.387291</v>
+        <v>0.387793</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.488695</v>
+        <v>0.456654</v>
       </c>
       <c r="C101" t="n">
-        <v>0.461025</v>
+        <v>0.472485</v>
       </c>
       <c r="D101" t="n">
-        <v>0.415001</v>
+        <v>0.38303</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.498082</v>
+        <v>0.459113</v>
       </c>
       <c r="C102" t="n">
-        <v>0.470038</v>
+        <v>0.468029</v>
       </c>
       <c r="D102" t="n">
-        <v>0.420969</v>
+        <v>0.393451</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.498361</v>
+        <v>0.484077</v>
       </c>
       <c r="C103" t="n">
-        <v>0.489069</v>
+        <v>0.476374</v>
       </c>
       <c r="D103" t="n">
-        <v>0.438138</v>
+        <v>0.39679</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.521932</v>
+        <v>0.498668</v>
       </c>
       <c r="C104" t="n">
-        <v>0.508624</v>
+        <v>0.492478</v>
       </c>
       <c r="D104" t="n">
-        <v>0.45177</v>
+        <v>0.428537</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.554348</v>
+        <v>0.503062</v>
       </c>
       <c r="C105" t="n">
-        <v>0.537911</v>
+        <v>0.529111</v>
       </c>
       <c r="D105" t="n">
-        <v>0.470302</v>
+        <v>0.432049</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.57733</v>
+        <v>0.529635</v>
       </c>
       <c r="C106" t="n">
-        <v>0.583589</v>
+        <v>0.539839</v>
       </c>
       <c r="D106" t="n">
-        <v>0.488327</v>
+        <v>0.44009</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.625367</v>
+        <v>0.568371</v>
       </c>
       <c r="C107" t="n">
-        <v>0.622692</v>
+        <v>0.57292</v>
       </c>
       <c r="D107" t="n">
-        <v>0.541641</v>
+        <v>0.479136</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.6768729999999999</v>
+        <v>0.619401</v>
       </c>
       <c r="C108" t="n">
-        <v>0.6634139999999999</v>
+        <v>0.661345</v>
       </c>
       <c r="D108" t="n">
-        <v>0.450994</v>
+        <v>0.50818</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.763843</v>
+        <v>0.726735</v>
       </c>
       <c r="C109" t="n">
-        <v>0.805056</v>
+        <v>0.741791</v>
       </c>
       <c r="D109" t="n">
-        <v>0.490515</v>
+        <v>0.467799</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.55654</v>
+        <v>0.561273</v>
       </c>
       <c r="C110" t="n">
-        <v>0.518715</v>
+        <v>0.542987</v>
       </c>
       <c r="D110" t="n">
-        <v>0.45057</v>
+        <v>0.479644</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.534991</v>
+        <v>0.575896</v>
       </c>
       <c r="C111" t="n">
-        <v>0.497127</v>
+        <v>0.546542</v>
       </c>
       <c r="D111" t="n">
-        <v>0.466935</v>
+        <v>0.503296</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.530767</v>
+        <v>0.560274</v>
       </c>
       <c r="C112" t="n">
-        <v>0.50665</v>
+        <v>0.544431</v>
       </c>
       <c r="D112" t="n">
-        <v>0.465262</v>
+        <v>0.486295</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.566886</v>
+        <v>0.572106</v>
       </c>
       <c r="C113" t="n">
-        <v>0.505602</v>
+        <v>0.583106</v>
       </c>
       <c r="D113" t="n">
-        <v>0.460138</v>
+        <v>0.490006</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.5295800000000001</v>
+        <v>0.578202</v>
       </c>
       <c r="C114" t="n">
-        <v>0.512634</v>
+        <v>0.5635599999999999</v>
       </c>
       <c r="D114" t="n">
-        <v>0.453151</v>
+        <v>0.497216</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.542764</v>
+        <v>0.582609</v>
       </c>
       <c r="C115" t="n">
-        <v>0.517849</v>
+        <v>0.578365</v>
       </c>
       <c r="D115" t="n">
-        <v>0.45802</v>
+        <v>0.501165</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.542189</v>
+        <v>0.598153</v>
       </c>
       <c r="C116" t="n">
-        <v>0.554248</v>
+        <v>0.596425</v>
       </c>
       <c r="D116" t="n">
-        <v>0.502759</v>
+        <v>0.514567</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.575394</v>
+        <v>0.623274</v>
       </c>
       <c r="C117" t="n">
-        <v>0.568905</v>
+        <v>0.613537</v>
       </c>
       <c r="D117" t="n">
-        <v>0.503243</v>
+        <v>0.537734</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.57672</v>
+        <v>0.628548</v>
       </c>
       <c r="C118" t="n">
-        <v>0.563701</v>
+        <v>0.614563</v>
       </c>
       <c r="D118" t="n">
-        <v>0.488563</v>
+        <v>0.529047</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.582493</v>
+        <v>0.64281</v>
       </c>
       <c r="C119" t="n">
-        <v>0.608565</v>
+        <v>0.674778</v>
       </c>
       <c r="D119" t="n">
-        <v>0.530988</v>
+        <v>0.565492</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.746205</v>
+        <v>0.676619</v>
       </c>
       <c r="C120" t="n">
-        <v>0.677904</v>
+        <v>0.663016</v>
       </c>
       <c r="D120" t="n">
-        <v>0.58953</v>
+        <v>0.58113</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.719037</v>
+        <v>0.723966</v>
       </c>
       <c r="C121" t="n">
-        <v>0.740312</v>
+        <v>0.704745</v>
       </c>
       <c r="D121" t="n">
-        <v>0.669551</v>
+        <v>0.606272</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.785247</v>
+        <v>0.779258</v>
       </c>
       <c r="C122" t="n">
-        <v>0.912394</v>
+        <v>0.789605</v>
       </c>
       <c r="D122" t="n">
-        <v>0.686216</v>
+        <v>0.665801</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.878063</v>
+        <v>0.854446</v>
       </c>
       <c r="C123" t="n">
-        <v>0.852772</v>
+        <v>0.897026</v>
       </c>
       <c r="D123" t="n">
-        <v>0.608389</v>
+        <v>0.788731</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.673953</v>
+        <v>0.893583</v>
       </c>
       <c r="C124" t="n">
-        <v>0.806325</v>
+        <v>0.840042</v>
       </c>
       <c r="D124" t="n">
-        <v>0.71235</v>
+        <v>0.765143</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.813053</v>
+        <v>0.887702</v>
       </c>
       <c r="C125" t="n">
-        <v>0.7429480000000001</v>
+        <v>0.824503</v>
       </c>
       <c r="D125" t="n">
-        <v>0.674401</v>
+        <v>0.774404</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.6947410000000001</v>
+        <v>0.911571</v>
       </c>
       <c r="C126" t="n">
-        <v>0.660469</v>
+        <v>0.848559</v>
       </c>
       <c r="D126" t="n">
-        <v>0.620726</v>
+        <v>0.787052</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.768414</v>
+        <v>0.963</v>
       </c>
       <c r="C127" t="n">
-        <v>0.7947959999999999</v>
+        <v>0.906491</v>
       </c>
       <c r="D127" t="n">
-        <v>0.76197</v>
+        <v>0.757317</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.883607</v>
+        <v>0.91788</v>
       </c>
       <c r="C128" t="n">
-        <v>0.80587</v>
+        <v>0.875297</v>
       </c>
       <c r="D128" t="n">
-        <v>0.737357</v>
+        <v>0.771788</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.826912</v>
+        <v>0.935555</v>
       </c>
       <c r="C129" t="n">
-        <v>0.754486</v>
+        <v>0.894085</v>
       </c>
       <c r="D129" t="n">
-        <v>0.776891</v>
+        <v>0.792638</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.860603</v>
+        <v>0.944085</v>
       </c>
       <c r="C130" t="n">
-        <v>1.00134</v>
+        <v>0.888656</v>
       </c>
       <c r="D130" t="n">
-        <v>0.835421</v>
+        <v>0.795868</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.807552</v>
+        <v>0.999535</v>
       </c>
       <c r="C131" t="n">
-        <v>0.804254</v>
+        <v>0.906914</v>
       </c>
       <c r="D131" t="n">
-        <v>0.8437170000000001</v>
+        <v>0.789986</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.760545</v>
+        <v>0.991636</v>
       </c>
       <c r="C132" t="n">
-        <v>0.759792</v>
+        <v>0.95459</v>
       </c>
       <c r="D132" t="n">
-        <v>0.690253</v>
+        <v>0.836684</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.90282</v>
+        <v>0.979308</v>
       </c>
       <c r="C133" t="n">
-        <v>0.8612610000000001</v>
+        <v>0.964174</v>
       </c>
       <c r="D133" t="n">
-        <v>0.745269</v>
+        <v>0.845516</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.856958</v>
+        <v>1.01962</v>
       </c>
       <c r="C134" t="n">
-        <v>0.940705</v>
+        <v>1.00109</v>
       </c>
       <c r="D134" t="n">
-        <v>0.823066</v>
+        <v>0.868117</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.12078</v>
+        <v>1.11719</v>
       </c>
       <c r="C135" t="n">
-        <v>1.06301</v>
+        <v>1.04001</v>
       </c>
       <c r="D135" t="n">
-        <v>0.912386</v>
+        <v>0.913403</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.22826</v>
+        <v>1.19326</v>
       </c>
       <c r="C136" t="n">
-        <v>1.21653</v>
+        <v>1.15266</v>
       </c>
       <c r="D136" t="n">
-        <v>0.952806</v>
+        <v>0.9539530000000001</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.29057</v>
+        <v>1.24248</v>
       </c>
       <c r="C137" t="n">
-        <v>1.26708</v>
+        <v>1.19607</v>
       </c>
       <c r="D137" t="n">
-        <v>1.10165</v>
+        <v>1.00197</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.22443</v>
+        <v>1.22381</v>
       </c>
       <c r="C138" t="n">
-        <v>1.1129</v>
+        <v>1.06166</v>
       </c>
       <c r="D138" t="n">
-        <v>1.07972</v>
+        <v>1.03801</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.20717</v>
+        <v>1.19235</v>
       </c>
       <c r="C139" t="n">
-        <v>1.14416</v>
+        <v>1.05867</v>
       </c>
       <c r="D139" t="n">
-        <v>1.076</v>
+        <v>1.01013</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.17687</v>
+        <v>1.20228</v>
       </c>
       <c r="C140" t="n">
-        <v>1.1064</v>
+        <v>1.07254</v>
       </c>
       <c r="D140" t="n">
-        <v>0.89352</v>
+        <v>1.04825</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.971846</v>
+        <v>1.20664</v>
       </c>
       <c r="C141" t="n">
-        <v>1.01667</v>
+        <v>1.08158</v>
       </c>
       <c r="D141" t="n">
-        <v>0.99747</v>
+        <v>1.03304</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.11078</v>
+        <v>1.22786</v>
       </c>
       <c r="C142" t="n">
-        <v>1.13748</v>
+        <v>1.08585</v>
       </c>
       <c r="D142" t="n">
-        <v>1.09717</v>
+        <v>1.02142</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.24382</v>
+        <v>1.26795</v>
       </c>
       <c r="C143" t="n">
-        <v>1.15762</v>
+        <v>1.09375</v>
       </c>
       <c r="D143" t="n">
-        <v>1.14882</v>
+        <v>1.027</v>
       </c>
     </row>
   </sheetData>
